--- a/output_by_subject/ME431.xlsx
+++ b/output_by_subject/ME431.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2313,6 +2313,50 @@
         </is>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1801ME49</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ME431</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1801ME59</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ME431</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
